--- a/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,51</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-10,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-49,99%</t>
+          <t>-42,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>-62,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-68,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>108,72%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 22,68</t>
+          <t>-17,01; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 8,73</t>
+          <t>-18,76; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 30,4</t>
+          <t>-25,86; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-63,74; 94,59</t>
+          <t>-4,87; 14,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-88,87; 34,2</t>
+          <t>-100,0; 274,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 110,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-94,69; 66,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-81,08; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,22</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>26,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>219,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78,89%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 35,28</t>
+          <t>-2,75; 8,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 35,7</t>
+          <t>-4,18; 6,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 50,8</t>
+          <t>2,41; 12,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 137,95</t>
+          <t>-1,3; 11,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 137,85</t>
+          <t>-33,9; 313,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 262,57</t>
+          <t>-45,76; 211,74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24,94; 635,6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,27; 353,02</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-32,41</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,13</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,07</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-49,91%</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,87%</t>
+          <t>-59,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>-69,28%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-60,31%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-63,54%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,48; -0,35</t>
+          <t>-12,35; -0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 12,6</t>
+          <t>-15,25; -2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 13,28</t>
+          <t>-10,6; -0,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,09; -2,97</t>
+          <t>-14,41; -1,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 21,39</t>
+          <t>-87,84; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 38,17</t>
+          <t>-90,83; -17,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-89,31; 3,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-87,02; -15,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 14,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 10,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 28,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 38,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 99,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-35,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 2,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 0,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 3,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 4,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-55,23; 38,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-64,37; 5,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 78,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 83,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-42,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-62,17%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-68,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>108,72%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.096170324497638</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.191204928888194</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-11.16272652777818</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.17700805898094</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5523294083872481</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.6436215302790632</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.6817480160717768</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.78961225706452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 6,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,76; 3,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-25,86; 2,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 14,91</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 274,27</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-94,69; 66,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-81,08; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.56537126721148</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.78086973836324</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-28.40467185215221</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.285863345525494</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.9446221597807891</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.818225674334405</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.148692176163352</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.197866234275537</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.762587055845899</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.88541568548239</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.248987493161843</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.7809027292517107</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>55,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>26,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>219,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>78,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 8,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 6,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 12,62</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 11,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-33,9; 313,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 211,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>24,94; 635,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,27; 353,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.074215734048102</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.75208674482563</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.607578039347011</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.140148798773233</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6334603441006149</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2894185629907234</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.563039279098823</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8811332215553842</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-59,03%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-69,28%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-60,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-63,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.124557762392233</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.921474217118246</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.009625148278563</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.8187260486938824</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3151512317934868</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4456307446267944</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.4047365862861358</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1748152846721206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,35; -0,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; -2,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,6; -0,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; -1,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-87,84; 9,44</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-90,83; -17,12</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-89,31; 3,54</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,02; -15,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.099051048417891</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.60726424942982</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.25939520217241</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.37193605454777</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.223964737915309</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.156969442273653</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.152384399585894</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.756841815048626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +821,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.179285788137609</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.369313624688818</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.094905644471173</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.886040986038475</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6528903535674555</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7058361298144391</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6238479951447805</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6584730590714892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.87895373802534</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.68951971390105</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.72591605761972</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.63137126791174</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.908484390686339</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9095136542900727</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9060045793129625</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8759160034917225</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.56353821191929</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.552211457615692</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.6513202473643154</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-2.135771384718614</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.1493594979811163</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.1984481801351656</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.001292017094225769</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.2049430143789057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-20,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-35,5%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 2,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 0,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 3,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 4,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-55,23; 38,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-64,37; 5,97</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-42,18; 78,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,3; 83,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.369295935663966</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.198289169176532</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2170138103297969</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1870588465164497</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2843474621530878</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3694579477416942</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.03271926279471625</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02470367701482579</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.471016447181126</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.826551753149646</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.869722819789867</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.973717620817184</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6256292537474331</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6635150756627576</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4327601465044367</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3878194981133162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.328132354379347</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.136438309376793</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.749463332268713</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.09001380417887</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2503715953411672</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.03488361552276088</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8226995716040614</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7710142888370475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
